--- a/biology/Zoologie/Anobinae/Anobinae.xlsx
+++ b/biology/Zoologie/Anobinae/Anobinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Anobinae sont une sous-famille d'insectes lépidoptères nocturnes de la famille des Erebidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Amérique, Asie.
 </t>
@@ -542,10 +556,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le taxon aujourd'hui appelé Anobinae a été décrit en 2005 par Holloway[1] en tant que tribu, alors appelée Anobini, et placée, en fonction des auteurs, dans la sous-famille des Catocalinae ou des Calpinae. 
-Il a ensuite été élevé au rang de sous-famille de la famille des Erebidae, et sa composition et sa position systématique ont été partiellement élucidées en 2012 par des études de phylogénie moléculaire[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le taxon aujourd'hui appelé Anobinae a été décrit en 2005 par Holloway en tant que tribu, alors appelée Anobini, et placée, en fonction des auteurs, dans la sous-famille des Catocalinae ou des Calpinae. 
+Il a ensuite été élevé au rang de sous-famille de la famille des Erebidae, et sa composition et sa position systématique ont été partiellement élucidées en 2012 par des études de phylogénie moléculaire.
 La compréhension de la systématique des Erebidae étant encore imparfaite et en progrès rapides, la nomenclature diffère selon les sources et est encore susceptible d'évoluer.
 </t>
         </is>
@@ -575,23 +591,25 @@
           <t>Liste de genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (6 mars 2018)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (6 mars 2018) :
 Anoba Walker, 1858 - genre type
 Baniana Walker, 1858
 Crithote Walker, 1864
 Plecoptera Guenée in Boisduval &amp; Guenée, 1852
 Rema Swinhoe, 1900
-Selon ITIS      (6 mars 2018)[4] :
+Selon ITIS      (6 mars 2018) :
 Baniana Walker, 1858
 Deinopa Walker, 1856
-Selon Zahiri et al. (2012)[2] :
+Selon Zahiri et al. (2012) :
 Anoba Walker, 1858
 Baniana Walker, 1858
 Crithote Walker, 1864
 Deinopa Walker, 1856
-Marcipa Walker, 1855 - syn. Birtha Walker, 1865[5]
+Marcipa Walker, 1855 - syn. Birtha Walker, 1865
 Plecoptera Guenée in Boisduval &amp; Guenée, 1852
 Rema Swinhoe, 1900</t>
         </is>
